--- a/diagrams/FilePathShortener On-Site Test Cases.xlsx
+++ b/diagrams/FilePathShortener On-Site Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\LongFilepathShorterner\diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.tsang\Desktop\LongFilepathShorterner\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD4AFC7-DA13-4E30-B0D8-87924C277C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B467CD3-2035-4F2D-B756-81E48BE4E7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11B9DBD6-E47E-4795-A236-5E362D067511}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11B9DBD6-E47E-4795-A236-5E362D067511}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-02-14" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Test ID</t>
   </si>
@@ -54,21 +54,9 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Scan directory for long filenames</t>
-  </si>
-  <si>
     <t>Script outputs files with long filenames to specified output</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Scan directory for long directory paths</t>
-  </si>
-  <si>
-    <t>Script outputs directories with long paths to specified output</t>
-  </si>
-  <si>
     <t>Shorten long filenames</t>
   </si>
   <si>
@@ -111,15 +99,6 @@
     <t>Test with &gt;10k files</t>
   </si>
   <si>
-    <t>Validate regex pattern conversion (if implemented)</t>
-  </si>
-  <si>
-    <t>Directories/filenames are correctly modified using provided regex patterns</t>
-  </si>
-  <si>
-    <t>Optional, based on feature</t>
-  </si>
-  <si>
     <t>Check output file splitting</t>
   </si>
   <si>
@@ -130,13 +109,79 @@
   </si>
   <si>
     <t>Output files are split correctly according to scan_entry_threshold setting</t>
+  </si>
+  <si>
+    <t>Total Files Count:</t>
+  </si>
+  <si>
+    <t>Total Folder Size:</t>
+  </si>
+  <si>
+    <t>Test Files Location:</t>
+  </si>
+  <si>
+    <t>Total Folders Count:</t>
+  </si>
+  <si>
+    <t>Z:\TEST.LFN.CGI\ (\\ca0-svm42)</t>
+  </si>
+  <si>
+    <t>Scan for long filenames and directory paths</t>
+  </si>
+  <si>
+    <t>Tester:</t>
+  </si>
+  <si>
+    <t>Test Env Information</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------</t>
+  </si>
+  <si>
+    <t>Jesse Tsang</t>
+  </si>
+  <si>
+    <t>Test Date:</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>1.4 TB</t>
+  </si>
+  <si>
+    <t>Please see test result doc - Test ID 5</t>
+  </si>
+  <si>
+    <t>Please see test result doc - Test ID 6</t>
+  </si>
+  <si>
+    <t>Take note of the total process time</t>
+  </si>
+  <si>
+    <t>See Test ID 1</t>
+  </si>
+  <si>
+    <t>Completed. 75 mins
+See Scan Output - Directoies and Filenames spreadsheet</t>
+  </si>
+  <si>
+    <t>Scan result correctly split into multiple part according to the setting.
+Combined test with ID 1</t>
+  </si>
+  <si>
+    <t>Logging and error file correctly generated
+See Test ID 10 doc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +211,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +243,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -204,22 +275,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -533,23 +617,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD5FB09-AFF3-46CE-8F71-C8776ADC3977}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,201 +653,302 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G6" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="108" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B24" s="3">
+        <v>749904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3">
+        <v>159628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d9290083-bd2f-48a2-8ac5-09a524b17d15}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>
--- a/diagrams/FilePathShortener On-Site Test Cases.xlsx
+++ b/diagrams/FilePathShortener On-Site Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.tsang\Desktop\LongFilepathShorterner\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B467CD3-2035-4F2D-B756-81E48BE4E7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D35DF2-2A52-4596-8C48-A7B9BE273F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11B9DBD6-E47E-4795-A236-5E362D067511}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Test ID</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Test Env Information</t>
   </si>
   <si>
-    <t>-----------------------------------------------</t>
-  </si>
-  <si>
     <t>Jesse Tsang</t>
   </si>
   <si>
@@ -156,42 +153,49 @@
     <t>Please see test result doc - Test ID 5</t>
   </si>
   <si>
-    <t>Please see test result doc - Test ID 6</t>
-  </si>
-  <si>
     <t>Take note of the total process time</t>
-  </si>
-  <si>
-    <t>See Test ID 1</t>
   </si>
   <si>
     <t>Completed. 75 mins
 See Scan Output - Directoies and Filenames spreadsheet</t>
   </si>
   <si>
-    <t>Scan result correctly split into multiple part according to the setting.
-Combined test with ID 1</t>
-  </si>
-  <si>
     <t>Logging and error file correctly generated
 See Test ID 10 doc</t>
+  </si>
+  <si>
+    <t>There was an error in the naming conversion for folders. It was fixed during on-site test. However, it would be best to have more tests on this part.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed a test with filename conflict. </t>
+  </si>
+  <si>
+    <t>Completed after code fixes.</t>
+  </si>
+  <si>
+    <t>75 mins maybe too long. May need to see if there is a way to improve performance. However, we were accessing a network shared drive.</t>
+  </si>
+  <si>
+    <t>The scan processed around 900k files + folders</t>
+  </si>
+  <si>
+    <t>Completed with test result as expected.</t>
+  </si>
+  <si>
+    <t>Please see test result doc - Test ID 1</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,8 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF9C5700"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,12 +246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -277,34 +282,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="60% - Accent4" xfId="2" builtinId="44"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,21 +622,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD5FB09-AFF3-46CE-8F71-C8776ADC3977}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -654,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.35">
@@ -667,18 +672,20 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -688,14 +695,16 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -705,14 +714,18 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -722,9 +735,11 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -739,18 +754,20 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -760,18 +777,20 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -781,20 +800,22 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="108" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -802,18 +823,20 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
@@ -821,124 +844,71 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>749904</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="7">
-        <v>45336</v>
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>159628</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3">
-        <v>749904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3">
-        <v>159628</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>38</v>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
